--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonProjects\DeepMind-GSoC-25-Benchmark-Gemma-Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC546737-218A-48B5-9061-893C9AAF1A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED853975-B8A0-4C83-82B1-4955108515E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{707642D4-9B0B-4885-9DF9-98B2502B2544}"/>
   </bookViews>
@@ -135,37 +135,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -177,7 +147,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FFFF7474"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCE3C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF29B95C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5D3FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4D4D4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,11 +264,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -278,6 +273,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -287,31 +288,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -320,6 +320,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF8F8F8"/>
       <color rgb="FF5081FC"/>
     </mruColors>
   </colors>
@@ -654,288 +655,289 @@
   <dimension ref="A1:AK11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="95.26953125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="95.26953125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="9"/>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11" t="s">
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11" t="s">
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11" t="s">
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11" t="s">
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11" t="s">
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AG1" s="11"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="11"/>
-      <c r="AJ1" s="13" t="s">
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="AK1" s="14"/>
+      <c r="AK1" s="11"/>
     </row>
     <row r="2" spans="1:37" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="12">
+      <c r="B2" s="6">
         <v>9</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="6">
         <v>16</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="6">
         <v>23</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="6">
         <v>30</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="6">
         <v>6</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="6">
         <v>13</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="6">
         <v>20</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="6">
         <v>27</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="6">
         <v>4</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="6">
         <v>11</v>
       </c>
-      <c r="L2" s="12">
+      <c r="L2" s="6">
         <v>18</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="6">
         <v>25</v>
       </c>
-      <c r="N2" s="12">
+      <c r="N2" s="6">
         <v>1</v>
       </c>
-      <c r="O2" s="12">
+      <c r="O2" s="6">
         <v>8</v>
       </c>
-      <c r="P2" s="12">
+      <c r="P2" s="6">
         <v>15</v>
       </c>
-      <c r="Q2" s="12">
+      <c r="Q2" s="6">
         <v>22</v>
       </c>
-      <c r="R2" s="12">
+      <c r="R2" s="6">
         <v>29</v>
       </c>
-      <c r="S2" s="12">
+      <c r="S2" s="6">
         <v>6</v>
       </c>
-      <c r="T2" s="12">
+      <c r="T2" s="6">
         <v>13</v>
       </c>
-      <c r="U2" s="12">
+      <c r="U2" s="6">
         <v>20</v>
       </c>
-      <c r="V2" s="12">
+      <c r="V2" s="6">
         <v>27</v>
       </c>
-      <c r="W2" s="12">
+      <c r="W2" s="6">
         <v>3</v>
       </c>
-      <c r="X2" s="12">
+      <c r="X2" s="6">
         <v>10</v>
       </c>
-      <c r="Y2" s="12">
+      <c r="Y2" s="6">
         <v>17</v>
       </c>
-      <c r="Z2" s="12">
+      <c r="Z2" s="6">
         <v>24</v>
       </c>
-      <c r="AA2" s="12">
+      <c r="AA2" s="6">
         <v>31</v>
       </c>
-      <c r="AB2" s="12">
+      <c r="AB2" s="6">
         <v>7</v>
       </c>
-      <c r="AC2" s="12">
+      <c r="AC2" s="6">
         <v>14</v>
       </c>
-      <c r="AD2" s="12">
+      <c r="AD2" s="6">
         <v>21</v>
       </c>
-      <c r="AE2" s="12">
+      <c r="AE2" s="6">
         <v>28</v>
       </c>
-      <c r="AF2" s="12">
+      <c r="AF2" s="6">
         <v>5</v>
       </c>
-      <c r="AG2" s="12">
+      <c r="AG2" s="6">
         <v>12</v>
       </c>
-      <c r="AH2" s="12">
+      <c r="AH2" s="6">
         <v>19</v>
       </c>
-      <c r="AI2" s="12">
+      <c r="AI2" s="6">
         <v>26</v>
       </c>
-      <c r="AJ2" s="12">
+      <c r="AJ2" s="6">
         <v>2</v>
       </c>
-      <c r="AK2" s="12">
+      <c r="AK2" s="6">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:37" s="1" customFormat="1" ht="38.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:37" s="1" customFormat="1" ht="46.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:37" s="1" customFormat="1" ht="44.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
     </row>
     <row r="6" spans="1:37" s="1" customFormat="1" ht="43" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="15"/>
-      <c r="AH6" s="15"/>
-      <c r="AI6" s="15"/>
-      <c r="AJ6" s="15"/>
-      <c r="AK6" s="15"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="17"/>
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="17"/>
+      <c r="AK6" s="17"/>
     </row>
     <row r="7" spans="1:37" s="1" customFormat="1" ht="43.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
     </row>
     <row r="8" spans="1:37" s="1" customFormat="1" ht="46" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="5"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="21"/>
+      <c r="AH8" s="21"/>
+      <c r="AI8" s="21"/>
+      <c r="AJ8" s="21"/>
+      <c r="AK8" s="21"/>
     </row>
     <row r="9" spans="1:37" s="1" customFormat="1" ht="44.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
+      <c r="AD9" s="23"/>
+      <c r="AE9" s="23"/>
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="23"/>
+      <c r="AH9" s="23"/>
     </row>
     <row r="10" spans="1:37" s="1" customFormat="1" ht="48.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="AG10" s="8"/>
-      <c r="AH10" s="8"/>
-      <c r="AI10" s="8"/>
-      <c r="AJ10" s="8"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
     </row>
     <row r="11" spans="1:37" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
